--- a/SuppXLS/Scen_UC_MANOILIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANOILIMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F7B0024-7AE8-4CE4-AEE3-4C388B181A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2278D0-1A33-44D1-8653-F2AE9C9841C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8972381B-6FAD-400C-95E8-1BF500BC4986}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8972381B-6FAD-400C-95E8-1BF500BC4986}"/>
   </bookViews>
   <sheets>
     <sheet name="UC_MANOILIMP" sheetId="1" r:id="rId1"/>

--- a/SuppXLS/Scen_UC_MANOILIMP.xlsx
+++ b/SuppXLS/Scen_UC_MANOILIMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2278D0-1A33-44D1-8653-F2AE9C9841C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44765F-98C9-4A52-8C70-178E4483CDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8972381B-6FAD-400C-95E8-1BF500BC4986}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>UC - Each Region/Period</t>
   </si>
@@ -47,9 +47,6 @@
     <t>~UC_Sets: T_E:</t>
   </si>
   <si>
-    <t>~UC_T:UC_RHSRTS</t>
-  </si>
-  <si>
     <t>UC_N</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Maximum penetration of Imported oil</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~0</t>
+  </si>
+  <si>
+    <t>~UC_T:UC_COMPRD</t>
   </si>
 </sst>
 </file>
@@ -197,7 +200,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -208,6 +211,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD693099-8C79-4CE0-824E-77997C389263}">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,92 +534,95 @@
     <col min="8" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.88671875" customWidth="1"/>
-    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.88671875" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="L5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
       </c>
       <c r="I6">
         <v>2030</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -623,28 +630,31 @@
       <c r="L6" s="8">
         <v>-0.8</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>15</v>
       </c>
-      <c r="N6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
       </c>
       <c r="I7">
         <v>2050</v>
       </c>
       <c r="J7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -652,20 +662,25 @@
       <c r="L7" s="8">
         <v>-0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M8" s="9"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M9" s="9"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M10" s="9"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="L11" s="9"/>
-    </row>
-    <row r="23" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="M11" s="9"/>
+    </row>
+    <row r="23" spans="5:18" x14ac:dyDescent="0.3">
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
@@ -673,8 +688,9 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -688,8 +704,9 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
-    </row>
-    <row r="25" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -703,8 +720,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -718,8 +736,9 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -733,8 +752,9 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -742,25 +762,25 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="30" spans="5:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
-      <c r="O30" s="9"/>
-    </row>
-    <row r="31" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="5:18" x14ac:dyDescent="0.3">
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-      <c r="O31" s="9"/>
-    </row>
-    <row r="32" spans="5:17" x14ac:dyDescent="0.3">
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="5:18" x14ac:dyDescent="0.3">
       <c r="G32" s="9"/>
-      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G33" s="9"/>
